--- a/medicine/Handicap/Sœurs_oblates_de_la_Sagesse/Sœurs_oblates_de_la_Sagesse.xlsx
+++ b/medicine/Handicap/Sœurs_oblates_de_la_Sagesse/Sœurs_oblates_de_la_Sagesse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C5%93urs_oblates_de_la_Sagesse</t>
+          <t>Sœurs_oblates_de_la_Sagesse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Sœurs oblates de la Sagesse forment une congrégation de sœurs sourdes-muettes, qui a été fondée en 1859 par l'abbé Charles Chaubier de Larnay (1802-1862).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C5%93urs_oblates_de_la_Sagesse</t>
+          <t>Sœurs_oblates_de_la_Sagesse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1847, l'abbé de Larnay met à disposition la propriété familiale de Biard, près de Poitiers, pour que des petites filles sourdes-muettes puissent bénéficier de l’enseignement dispensé par les religieuses de la congrégation des Filles de la Sagesse. Depuis lors, l'Institution de Larnay est au service des déficients sensoriels (surdité, cécité).
 En 1859, l'abbé de Larnay, voulant permettre aux jeunes filles sourdes-muettes de réaliser leur vocation à la vie religieuse, fonde la congrégation des Sœurs de Notre Dame des Sept Douleurs et la confie aux Filles de la Sagesse. En 1909, ce rameau de la congrégation des Filles de la Sagesse devient l'institut des Sœurs oblates de la Sagesse. Depuis la création quatre-vingt neuf sœurs sourdes ont servi leurs sœurs et frères handicapés.
